--- a/data/trans_camb/P19-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.448420835663136</v>
+        <v>-7.478702056214346</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.792470341507137</v>
+        <v>-6.749423733582033</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.387990239248622</v>
+        <v>-7.568987785607463</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.641098377842755</v>
+        <v>-2.768748673900681</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.900176230674202</v>
+        <v>-2.740265661155744</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-8.666156093067647</v>
+        <v>-9.036963502276672</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.774879237602529</v>
+        <v>-3.829386838433209</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.586768209012542</v>
+        <v>-3.633073455610505</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.584120732187472</v>
+        <v>-7.355372902520747</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.6616118390466437</v>
+        <v>-0.5794964528471925</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9499349250373548</v>
+        <v>0.3817435989697822</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4905285105739132</v>
+        <v>-0.1140370083477086</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.132541626800499</v>
+        <v>4.035211224427059</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.282533055622932</v>
+        <v>4.332335585061635</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.493263691209064</v>
+        <v>-2.836243631281639</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8716608171454884</v>
+        <v>1.071998925606962</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.489001971529442</v>
+        <v>1.60225878368826</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-2.58789309231981</v>
+        <v>-2.713034692308437</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3369706412213543</v>
+        <v>-0.3377140823252849</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3092378834403758</v>
+        <v>-0.3094530779880674</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3398761829104645</v>
+        <v>-0.3471026885418987</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1110027427732422</v>
+        <v>-0.1140463875273157</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1207696593920661</v>
+        <v>-0.1146753459148887</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3593390501616776</v>
+        <v>-0.3780001410245449</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1658989153671314</v>
+        <v>-0.1680167628039334</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1556715447472687</v>
+        <v>-0.1614407521437118</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3318231426119902</v>
+        <v>-0.3233851088574929</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.03394976592153901</v>
+        <v>-0.02905980114320396</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.04586446188414484</v>
+        <v>0.02337345803093191</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.02537094060342075</v>
+        <v>-0.00652057002704869</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.197069204954281</v>
+        <v>0.1944422805624404</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2033596915367917</v>
+        <v>0.2080885331649911</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1166820092117383</v>
+        <v>-0.1348474599908887</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04267040271115086</v>
+        <v>0.05381528954819685</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.06994309602710054</v>
+        <v>0.07774977775917545</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1282117916101288</v>
+        <v>-0.1304833854978495</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>5.476623188686386</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1332959906816533</v>
+        <v>0.1332959906816589</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-3.969630506210425</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.460526756135142</v>
+        <v>-2.720453691337658</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.801952647884403</v>
+        <v>2.418662072516757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.771771153502554</v>
+        <v>-3.113003727405597</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.298436922145789</v>
+        <v>-7.362318279205383</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.332873469380723</v>
+        <v>-2.201410779937504</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.439131225441072</v>
+        <v>-8.242033936789133</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.111542707045284</v>
+        <v>-4.081056080604392</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.142742853484262</v>
+        <v>1.056202940350653</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.6276614932407</v>
+        <v>-4.5350484024128</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.331017884539049</v>
+        <v>2.949417148916643</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.242694103667029</v>
+        <v>8.660816162879067</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.295325852088788</v>
+        <v>3.110421005735292</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.5602041576007519</v>
+        <v>-0.6481339471880433</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.385300553590323</v>
+        <v>4.469049460918371</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.220184574994188</v>
+        <v>-2.259225615826058</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1678465198207002</v>
+        <v>0.2297671866693919</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.654113892776959</v>
+        <v>5.452601848538398</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.1399596722394378</v>
+        <v>-0.1661258446130103</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2136461724538331</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.005199952092999074</v>
+        <v>0.005199952092999291</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1072895054557459</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.09185532638857538</v>
+        <v>-0.1001035162551485</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1057347181728377</v>
+        <v>0.0900912212590099</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1021849923551053</v>
+        <v>-0.114704864620492</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1895022431364038</v>
+        <v>-0.1904750874476633</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06003424999090899</v>
+        <v>-0.05625839582229082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.215704216266382</v>
+        <v>-0.2123524201128854</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1266934030924489</v>
+        <v>-0.1257680522587435</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.03483593095351818</v>
+        <v>0.03227931596902708</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1431636915044898</v>
+        <v>-0.1398163022070441</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1375430302303608</v>
+        <v>0.1224930290157674</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3436407316997938</v>
+        <v>0.3612283157357489</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1320997123300152</v>
+        <v>0.1269821883273334</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.01567018076418109</v>
+        <v>-0.01599657985998331</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1225776877001749</v>
+        <v>0.1271352023109635</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.061375280755113</v>
+        <v>-0.06338623154892867</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.006272290261250107</v>
+        <v>0.007477968118348447</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1893782788228509</v>
+        <v>0.1822531910195027</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.004465431131246352</v>
+        <v>-0.005581506900813769</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>7.676644810821815</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.080582377554855</v>
+        <v>5.080582377554865</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.344242568159257</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1959634969435667</v>
+        <v>-0.7523564181217666</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.760671995516925</v>
+        <v>1.047708372884953</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2114966123121686</v>
+        <v>-0.3457084808494592</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.207522541462549</v>
+        <v>-1.95150102288368</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.934820479036812</v>
+        <v>-2.018183980204667</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.809282565398946</v>
+        <v>2.353814997900446</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9324663460294357</v>
+        <v>0.8043135660998839</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.568622340653531</v>
+        <v>2.403960927101404</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.770533783781644</v>
+        <v>2.956840091570236</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.25872228367668</v>
+        <v>11.86086315782278</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.18867494462464</v>
+        <v>13.11979311869919</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.70539995207436</v>
+        <v>10.56593182544654</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.29104486418903</v>
+        <v>10.87227509121216</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.86447051326198</v>
+        <v>10.22881938009517</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.46530300355304</v>
+        <v>12.97630318548123</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.95319735749711</v>
+        <v>9.910137654142218</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>10.28138897872182</v>
+        <v>10.88427536774607</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.77612140122386</v>
+        <v>10.98245866737345</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2499743421634599</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1654388432621232</v>
+        <v>0.1654388432621236</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1179602938511014</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.007326065402915704</v>
+        <v>-0.0336929033377517</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.05115695261543111</v>
+        <v>0.03071458220674201</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.006594107894603005</v>
+        <v>-0.009123074499333805</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.05318584523404532</v>
+        <v>-0.0508792321859693</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.04644604560197239</v>
+        <v>-0.05118698016159583</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07350659460781464</v>
+        <v>0.05887756306097079</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02498754400184449</v>
+        <v>0.02252800311565621</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.0445329583423986</v>
+        <v>0.06191580855339049</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.07632287488892728</v>
+        <v>0.08109037882943054</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4467187743968022</v>
+        <v>0.4079898912845232</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4783875800936885</v>
+        <v>0.4650433800109275</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3880218870883119</v>
+        <v>0.3825395962076084</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3411892193422807</v>
+        <v>0.3259689363876396</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3228269683298736</v>
+        <v>0.2945112719957412</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4076921709957071</v>
+        <v>0.3994639204299569</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3149514002693531</v>
+        <v>0.3155959018254219</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3215884487924239</v>
+        <v>0.3468774261102537</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3442489723558321</v>
+        <v>0.3536013275654299</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>4.295931204017112</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.429406024625912</v>
+        <v>1.429406024625918</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.012133437254487</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.260040296757887</v>
+        <v>-2.317613325883824</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.212304102485288</v>
+        <v>1.921391338502431</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8754678333272816</v>
+        <v>-0.625157781400036</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.216467881050483</v>
+        <v>-3.044284720858458</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7560209564234038</v>
+        <v>1.07122094777389</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.258878817208563</v>
+        <v>-2.327558388619883</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.197118226481221</v>
+        <v>-2.251243996943515</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.981978077491491</v>
+        <v>2.263066746995797</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.06023908222631</v>
+        <v>-0.9055999000428196</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.914377198354847</v>
+        <v>1.998262051495824</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.854707043490254</v>
+        <v>6.533570763295665</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.746039497577924</v>
+        <v>3.817070979970819</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.314761429837493</v>
+        <v>1.28914916300673</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.408698011186259</v>
+        <v>5.429046230136148</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.804039916210535</v>
+        <v>2.079704672827944</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.156255775759014</v>
+        <v>0.9738166553357461</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.251883468492075</v>
+        <v>5.338420973079973</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.063732784684393</v>
+        <v>2.354138682008533</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1726785064660664</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.05745615694105903</v>
+        <v>0.05745615694105925</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.03228777482083447</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.08727998203673604</v>
+        <v>-0.08914664533905416</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.08541943731399261</v>
+        <v>0.07276423269251568</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.03313127804366279</v>
+        <v>-0.02569678481287196</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.09885423936482662</v>
+        <v>-0.0938888035763645</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.02371926914089478</v>
+        <v>0.03222175400513828</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.07077511962833372</v>
+        <v>-0.07043353721353469</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.07556930030741185</v>
+        <v>-0.07785177595048554</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.07012387559603156</v>
+        <v>0.07839316526819708</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.03606867442121477</v>
+        <v>-0.03098762466189632</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.08244774840173262</v>
+        <v>0.08275178763225507</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2865569388216066</v>
+        <v>0.2764706818594672</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1604203773463966</v>
+        <v>0.165578043087341</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.04389579135575385</v>
+        <v>0.04264915486975134</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1778075279582998</v>
+        <v>0.17919577295838</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06016877926593294</v>
+        <v>0.0690933978211407</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04240902860746742</v>
+        <v>0.03564900195274257</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1918570778420973</v>
+        <v>0.1934170554426057</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.07404321916624555</v>
+        <v>0.08716294246774994</v>
       </c>
     </row>
     <row r="28">
